--- a/src/test_web.xlsx
+++ b/src/test_web.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18455" windowHeight="10020"/>
+    <workbookView windowWidth="18275" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="82">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -49,7 +49,7 @@
     <t>登录验证</t>
   </si>
   <si>
-    <t>1.打开登录页</t>
+    <t>打开登录页</t>
   </si>
   <si>
     <t>goto</t>
@@ -58,25 +58,22 @@
     <t>http://36.139.165.155:8181/#/</t>
   </si>
   <si>
-    <t>2.输入账号名</t>
+    <t>输入账号名</t>
   </si>
   <si>
     <t>input</t>
   </si>
   <si>
-    <t>xpath</t>
-  </si>
-  <si>
     <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view/uni-view/uni-view[2]/uni-view/uni-input/div/input</t>
   </si>
   <si>
-    <t>3.输入密码</t>
+    <t>输入密码</t>
   </si>
   <si>
     <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view/uni-view/uni-view[4]/uni-view/uni-input/div/input</t>
   </si>
   <si>
-    <t>4.获取验证码</t>
+    <t>获取验证码</t>
   </si>
   <si>
     <t>getSave</t>
@@ -88,7 +85,7 @@
     <t>验证码</t>
   </si>
   <si>
-    <t>5.输入验证码</t>
+    <t>输入验证码</t>
   </si>
   <si>
     <t>inputSave</t>
@@ -97,7 +94,7 @@
     <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view/uni-view/uni-view[6]/uni-view[1]/uni-view/uni-input/div/input</t>
   </si>
   <si>
-    <t>6.点击登录</t>
+    <t>点击登录</t>
   </si>
   <si>
     <t>click</t>
@@ -106,7 +103,7 @@
     <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view/uni-view/button</t>
   </si>
   <si>
-    <t>7.验证是否正确</t>
+    <t>验证是否正确</t>
   </si>
   <si>
     <t>verify</t>
@@ -119,12 +116,156 @@
   </si>
   <si>
     <t>==</t>
+  </si>
+  <si>
+    <t>修改密码</t>
+  </si>
+  <si>
+    <t>点击下拉栏</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view[1]/uni-view/uni-image[1]</t>
+  </si>
+  <si>
+    <t>点击修改密码</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view[2]/uni-view[1]</t>
+  </si>
+  <si>
+    <t>输入原密码</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view[3]/uni-view[3]/uni-view/uni-view/uni-input/div/input</t>
+  </si>
+  <si>
+    <t>输入新密码</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view[3]/uni-view[4]/uni-view/uni-view/uni-input/div/input</t>
+  </si>
+  <si>
+    <t>再次输入新密码</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view[3]/uni-view[5]/uni-view/uni-view/uni-input/div/input</t>
+  </si>
+  <si>
+    <t>点击立即修改</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view[3]/button</t>
+  </si>
+  <si>
+    <t>验证能否提交</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/uni-toast/div/p</t>
+  </si>
+  <si>
+    <t>密码修改成功</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>心理测评文字题</t>
+  </si>
+  <si>
+    <t>点击测评任务</t>
+  </si>
+  <si>
+    <t>//uni-view[@class="title" and text()="713文字题目测试"]/following-sibling::button</t>
+  </si>
+  <si>
+    <t>点击去测评开始</t>
+  </si>
+  <si>
+    <t>点击文本</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view[3]/uni-view[3]/uni-view/uni-view[2]/uni-view[1]/uni-view/uni-textarea/div/textarea</t>
+  </si>
+  <si>
+    <t>输入文本答案</t>
+  </si>
+  <si>
+    <t>文本测试题目1</t>
+  </si>
+  <si>
+    <t>等待10秒</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>点击下一题</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view[3]/uni-view[4]/uni-view/uni-view[2]/uni-view[1]/uni-view/uni-textarea/div/textarea</t>
+  </si>
+  <si>
+    <t>文本测试题目2</t>
+  </si>
+  <si>
+    <t>点击提交</t>
+  </si>
+  <si>
+    <t>验证是否提交成功</t>
+  </si>
+  <si>
+    <t>提交成功</t>
+  </si>
+  <si>
+    <t>心理测评选择题</t>
+  </si>
+  <si>
+    <t>//uni-view[@class="title" and text()="生命意义表"]/following-sibling::button</t>
+  </si>
+  <si>
+    <t>选择</t>
+  </si>
+  <si>
+    <t>//*[@class="choice" and @data-index="0"]</t>
+  </si>
+  <si>
+    <t>等待5秒</t>
+  </si>
+  <si>
+    <t>查看报告</t>
+  </si>
+  <si>
+    <t>进入个人中心</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view[1]/div/div[1]/div/div/div/div/div[3]</t>
+  </si>
+  <si>
+    <t>点击个人报告</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view[2]/uni-view/uni-view[1]/uni-view[4]/uni-view[2]</t>
+  </si>
+  <si>
+    <t>点击进入报告</t>
+  </si>
+  <si>
+    <t>/html/body/div[1]/uni-app/uni-page/uni-page-wrapper/uni-page-body/uni-view[2]/uni-view/uni-view[3]/uni-view[3]/uni-view[1]/uni-view/uni-image[2]/img</t>
+  </si>
+  <si>
+    <t>验证</t>
+  </si>
+  <si>
+    <t>resultId=253</t>
+  </si>
+  <si>
+    <t>contains</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -164,42 +305,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -235,6 +340,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,7 +405,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,49 +441,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,121 +579,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,21 +632,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -538,6 +664,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,165 +737,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -763,52 +907,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1079,10 +1223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1135,7 +1279,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
@@ -1144,15 +1288,13 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -1161,144 +1303,1069 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>4888</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4">
         <v>123456</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="1"/>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="1"/>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H17" s="3">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7">
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7">
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7">
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7">
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7">
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>60</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
+      <c r="C50">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="C51">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7">
+      <c r="C53">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7">
+      <c r="C54">
+        <v>21</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55">
+        <v>22</v>
+      </c>
+      <c r="D55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7">
+      <c r="C56">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="C57">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
+      <c r="C59">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
+      <c r="C60">
+        <v>27</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61">
         <v>28</v>
       </c>
-      <c r="F7"/>
-      <c r="G7" t="s">
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
+      <c r="C62">
         <v>29</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="C63">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64">
         <v>31</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8" s="3" t="s">
+      <c r="D64" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7">
+      <c r="C65">
         <v>32</v>
       </c>
-      <c r="I8" t="s">
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10">
+      <c r="C66">
         <v>33</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="3:3">
-      <c r="C10" s="1"/>
+      <c r="D66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="4:7">
+      <c r="D68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7">
+      <c r="D69" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10">
+      <c r="D70" t="s">
+        <v>79</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A22"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="http://36.139.165.155:8181/#/" tooltip="http://36.139.165.155:8181/#/"/>
     <hyperlink ref="H4" r:id="rId2" display="123456"/>
     <hyperlink ref="H5" r:id="rId2" display="验证码"/>
     <hyperlink ref="H8" r:id="rId3" display="http://36.139.165.155:8181/#/pages/index/index"/>
+    <hyperlink ref="H16" r:id="rId1" display="http://36.139.165.155:8181/#/" tooltip="http://36.139.165.155:8181/#/"/>
+    <hyperlink ref="H18" r:id="rId2" display="123456"/>
+    <hyperlink ref="H19" r:id="rId2" display="验证码"/>
+    <hyperlink ref="H22" r:id="rId3" display="http://36.139.165.155:8181/#/pages/index/index"/>
+    <hyperlink ref="H70" r:id="rId4" display="resultId=253"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
